--- a/knowledge-base/excel-postings/initiatives/FY 22/s1.w2/w2-workstream.initiatives.a6i.xlsx
+++ b/knowledge-base/excel-postings/initiatives/FY 22/s1.w2/w2-workstream.initiatives.a6i.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test-knowledge-base\excel-postings\initiatives\FY 22\s1.w2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Documents\Code\chateauclaudia-labs\apodeixi\test_db\knowledge-base\excel-postings\initiatives\FY 22\s1.w2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DB496A-99BE-4821-8960-D69AA1D8F2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C24F802-6D73-4BC5-AE8E-BFDBA5647B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{1C3C717C-D18E-4132-9B42-D7001AA1AE8F}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>scenario</t>
   </si>
   <si>
-    <t>environment</t>
-  </si>
-  <si>
     <t>Production</t>
   </si>
   <si>
@@ -357,6 +354,9 @@
   </si>
   <si>
     <t>workstream.initiatives.a6i.io/v1a</t>
+  </si>
+  <si>
+    <t>knowledgeBase</t>
   </si>
 </sst>
 </file>
@@ -904,7 +904,7 @@
   <dimension ref="B1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -921,10 +921,10 @@
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>104</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
@@ -964,100 +964,100 @@
         <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B12" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="10">
         <v>44315</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1101,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1112,53 +1112,53 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>28</v>
       </c>
       <c r="E3" s="15">
         <v>44530</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="15">
         <v>44423</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
@@ -1167,13 +1167,13 @@
       <c r="D4" s="12"/>
       <c r="E4" s="15"/>
       <c r="F4" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="15">
         <v>44895</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I4" s="12"/>
     </row>
@@ -1183,16 +1183,16 @@
       <c r="D5" s="12"/>
       <c r="E5" s="15"/>
       <c r="F5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" s="15">
         <v>44804</v>
       </c>
       <c r="H5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.45">
@@ -1228,10 +1228,10 @@
     <row r="9" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="15">
         <v>44712</v>
@@ -1239,10 +1239,10 @@
       <c r="F9" s="12"/>
       <c r="G9" s="15"/>
       <c r="H9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.45">
@@ -1269,7 +1269,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E12" s="15">
         <v>45077</v>
@@ -1277,10 +1277,10 @@
       <c r="F12" s="12"/>
       <c r="G12" s="15"/>
       <c r="H12" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
@@ -1317,7 +1317,7 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="15">
         <v>45443</v>
@@ -1325,10 +1325,10 @@
       <c r="F16" s="12"/>
       <c r="G16" s="15"/>
       <c r="H16" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.45">
@@ -1422,7 +1422,7 @@
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -1436,37 +1436,37 @@
     </row>
     <row r="2" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="M2" s="17"/>
     </row>
@@ -1486,73 +1486,73 @@
     </row>
     <row r="4" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="27" t="s">
+      <c r="H4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="M4" s="17"/>
     </row>
     <row r="5" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="E5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>62</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="M5" s="17"/>
     </row>
@@ -1628,196 +1628,196 @@
     </row>
     <row r="11" spans="2:13" ht="114" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="F11" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="G11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>67</v>
-      </c>
       <c r="I11" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
       <c r="C12" s="24"/>
       <c r="D12" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="26" t="s">
-        <v>69</v>
-      </c>
       <c r="G12" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>71</v>
-      </c>
       <c r="G13" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>73</v>
-      </c>
       <c r="G14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="G15" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>78</v>
-      </c>
       <c r="G16" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.45">
@@ -1885,6 +1885,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCBD749F692D2840A5441473A3346AC8" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e2155aeb54e5d7003d408112aa42e75d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1457f3fe-6304-4719-bef8-60c608407d99" xmlns:ns3="66517581-92a9-4cb0-981f-3f6c827c3504" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4c58ad8abd1e926bea19a7235ad73cd" ns2:_="" ns3:_="">
     <xsd:import namespace="1457f3fe-6304-4719-bef8-60c608407d99"/>
@@ -2095,15 +2104,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2119,6 +2119,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DD3E520-5A2E-4E50-8AFD-FF654A716826}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2137,14 +2145,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69F59924-779F-45B5-BAB0-46EB91D29C8C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD6CD186-1AFD-40DE-A756-562BEC0234AA}">
   <ds:schemaRefs>
